--- a/DMS phase 1a/1a staging table/CP_POL_CLIENT_ADDR.CSV.xlsx
+++ b/DMS phase 1a/1a staging table/CP_POL_CLIENT_ADDR.CSV.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CP_POL_CLIENT_ADDR.CSV" sheetId="4" r:id="rId1"/>
     <sheet name="Sample Data" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -215,7 +215,7 @@
     <t>If it's a policy, then show as 1, if it's a quotation, then show as 0</t>
   </si>
   <si>
-    <t>What is the definition for this field, is there any sample? How to display if it's a new business policy or quotation?</t>
+    <t>Default to be display as '1'</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -345,19 +339,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +717,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -741,21 +734,21 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -790,7 +783,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -830,7 +823,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -954,7 +947,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -974,7 +967,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -990,7 +983,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
